--- a/scenarios/ME IRP 2024/sub_scenarios/operational_constraints.xlsx
+++ b/scenarios/ME IRP 2024/sub_scenarios/operational_constraints.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.29.13.112\Github-shared\pypsa-za2\scenarios\ME IRP 2024\sub_scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC8C77-C58B-428D-A7E7-6C6051F1014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34351AB-5CCB-4317-8697-130B899229BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operational_constraints" sheetId="1" r:id="rId1"/>
+    <sheet name="operational_reserves" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="51">
   <si>
     <t>bus</t>
   </si>
@@ -174,6 +175,21 @@
   </si>
   <si>
     <t>AMBITIONS</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>AMB_LG</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>spinning</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -706,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14760,7 +14776,7 @@
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>9</v>
@@ -14913,7 +14929,7 @@
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>9</v>
@@ -15065,9 +15081,8 @@
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="str">
-        <f>A99</f>
-        <v>AMBITIONS</v>
+      <c r="A100" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>9</v>
@@ -15833,13 +15848,1287 @@
         <v>2.8</v>
       </c>
     </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105">
+        <v>20</v>
+      </c>
+      <c r="K105">
+        <f t="shared" ref="K105:K110" si="44">J105</f>
+        <v>20</v>
+      </c>
+      <c r="L105">
+        <f t="shared" ref="L105:L110" si="45">K105</f>
+        <v>20</v>
+      </c>
+      <c r="M105">
+        <f t="shared" ref="M105:M110" si="46">L105</f>
+        <v>20</v>
+      </c>
+      <c r="N105">
+        <f t="shared" ref="N105:N110" si="47">M105</f>
+        <v>20</v>
+      </c>
+      <c r="O105">
+        <f t="shared" ref="O105:O110" si="48">N105</f>
+        <v>20</v>
+      </c>
+      <c r="P105">
+        <f t="shared" ref="P105:P110" si="49">O105</f>
+        <v>20</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" ref="Q105:Q110" si="50">P105</f>
+        <v>20</v>
+      </c>
+      <c r="R105">
+        <f t="shared" ref="R105:R110" si="51">Q105</f>
+        <v>20</v>
+      </c>
+      <c r="S105">
+        <f t="shared" ref="S105:S110" si="52">R105</f>
+        <v>20</v>
+      </c>
+      <c r="T105">
+        <f t="shared" ref="T105:T110" si="53">S105</f>
+        <v>20</v>
+      </c>
+      <c r="U105">
+        <f t="shared" ref="U105:U110" si="54">T105</f>
+        <v>20</v>
+      </c>
+      <c r="V105">
+        <f t="shared" ref="V105:V110" si="55">U105</f>
+        <v>20</v>
+      </c>
+      <c r="W105">
+        <f t="shared" ref="W105:W110" si="56">V105</f>
+        <v>20</v>
+      </c>
+      <c r="X105">
+        <f t="shared" ref="X105:X110" si="57">W105</f>
+        <v>20</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" ref="Y105:Y110" si="58">X105</f>
+        <v>20</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" ref="Z105:Z110" si="59">Y105</f>
+        <v>20</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" ref="AA105:AA110" si="60">Z105</f>
+        <v>20</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" ref="AB105:AB110" si="61">AA105</f>
+        <v>20</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" ref="AC105:AC110" si="62">AB105</f>
+        <v>20</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" ref="AD105:AD110" si="63">AC105</f>
+        <v>20</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" ref="AE105:AE110" si="64">AD105</f>
+        <v>20</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" ref="AF105:AF110" si="65">AE105</f>
+        <v>20</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" ref="AG105:AG110" si="66">AF105</f>
+        <v>20</v>
+      </c>
+      <c r="AH105">
+        <f t="shared" ref="AH105:AH110" si="67">AG105</f>
+        <v>20</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" ref="AI105:AI110" si="68">AH105</f>
+        <v>20</v>
+      </c>
+      <c r="AJ105">
+        <f t="shared" ref="AJ105:AJ110" si="69">AI105</f>
+        <v>20</v>
+      </c>
+      <c r="AK105">
+        <f t="shared" ref="AK105:AK110" si="70">AJ105</f>
+        <v>20</v>
+      </c>
+      <c r="AL105">
+        <f t="shared" ref="AL105:AL110" si="71">AK105</f>
+        <v>20</v>
+      </c>
+      <c r="AM105">
+        <f t="shared" ref="AM105:AM110" si="72">AL105</f>
+        <v>20</v>
+      </c>
+      <c r="AN105">
+        <f t="shared" ref="AN105:AN110" si="73">AM105</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K106" s="8">
+        <f t="shared" si="44"/>
+        <v>0.3</v>
+      </c>
+      <c r="L106" s="7">
+        <f t="shared" si="45"/>
+        <v>0.3</v>
+      </c>
+      <c r="M106" s="7">
+        <f t="shared" si="46"/>
+        <v>0.3</v>
+      </c>
+      <c r="N106" s="7">
+        <f t="shared" si="47"/>
+        <v>0.3</v>
+      </c>
+      <c r="O106" s="7">
+        <f t="shared" si="48"/>
+        <v>0.3</v>
+      </c>
+      <c r="P106" s="7">
+        <f t="shared" si="49"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q106" s="7">
+        <f t="shared" si="50"/>
+        <v>0.3</v>
+      </c>
+      <c r="R106" s="7">
+        <f t="shared" si="51"/>
+        <v>0.3</v>
+      </c>
+      <c r="S106" s="7">
+        <f t="shared" si="52"/>
+        <v>0.3</v>
+      </c>
+      <c r="T106" s="7">
+        <f t="shared" si="53"/>
+        <v>0.3</v>
+      </c>
+      <c r="U106" s="7">
+        <f t="shared" si="54"/>
+        <v>0.3</v>
+      </c>
+      <c r="V106" s="7">
+        <f t="shared" si="55"/>
+        <v>0.3</v>
+      </c>
+      <c r="W106" s="7">
+        <f t="shared" si="56"/>
+        <v>0.3</v>
+      </c>
+      <c r="X106" s="7">
+        <f t="shared" si="57"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y106" s="7">
+        <f t="shared" si="58"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z106" s="7">
+        <f t="shared" si="59"/>
+        <v>0.3</v>
+      </c>
+      <c r="AA106" s="7">
+        <f t="shared" si="60"/>
+        <v>0.3</v>
+      </c>
+      <c r="AB106" s="7">
+        <f t="shared" si="61"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC106" s="7">
+        <f t="shared" si="62"/>
+        <v>0.3</v>
+      </c>
+      <c r="AD106" s="7">
+        <f t="shared" si="63"/>
+        <v>0.3</v>
+      </c>
+      <c r="AE106" s="7">
+        <f t="shared" si="64"/>
+        <v>0.3</v>
+      </c>
+      <c r="AF106" s="7">
+        <f t="shared" si="65"/>
+        <v>0.3</v>
+      </c>
+      <c r="AG106" s="7">
+        <f t="shared" si="66"/>
+        <v>0.3</v>
+      </c>
+      <c r="AH106" s="7">
+        <f t="shared" si="67"/>
+        <v>0.3</v>
+      </c>
+      <c r="AI106" s="7">
+        <f t="shared" si="68"/>
+        <v>0.3</v>
+      </c>
+      <c r="AJ106" s="7">
+        <f t="shared" si="69"/>
+        <v>0.3</v>
+      </c>
+      <c r="AK106" s="7">
+        <f t="shared" si="70"/>
+        <v>0.3</v>
+      </c>
+      <c r="AL106" s="7">
+        <f t="shared" si="71"/>
+        <v>0.3</v>
+      </c>
+      <c r="AM106" s="7">
+        <f t="shared" si="72"/>
+        <v>0.3</v>
+      </c>
+      <c r="AN106" s="7">
+        <f t="shared" si="73"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A107" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="K107" s="8">
+        <f t="shared" si="44"/>
+        <v>0.35</v>
+      </c>
+      <c r="L107" s="8">
+        <f t="shared" si="45"/>
+        <v>0.35</v>
+      </c>
+      <c r="M107" s="8">
+        <f t="shared" si="46"/>
+        <v>0.35</v>
+      </c>
+      <c r="N107" s="8">
+        <f t="shared" si="47"/>
+        <v>0.35</v>
+      </c>
+      <c r="O107" s="8">
+        <f t="shared" si="48"/>
+        <v>0.35</v>
+      </c>
+      <c r="P107" s="8">
+        <f t="shared" si="49"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q107" s="8">
+        <f t="shared" si="50"/>
+        <v>0.35</v>
+      </c>
+      <c r="R107" s="8">
+        <f t="shared" si="51"/>
+        <v>0.35</v>
+      </c>
+      <c r="S107" s="8">
+        <f t="shared" si="52"/>
+        <v>0.35</v>
+      </c>
+      <c r="T107" s="8">
+        <f t="shared" si="53"/>
+        <v>0.35</v>
+      </c>
+      <c r="U107" s="8">
+        <f t="shared" si="54"/>
+        <v>0.35</v>
+      </c>
+      <c r="V107" s="8">
+        <f t="shared" si="55"/>
+        <v>0.35</v>
+      </c>
+      <c r="W107" s="8">
+        <f t="shared" si="56"/>
+        <v>0.35</v>
+      </c>
+      <c r="X107" s="8">
+        <f t="shared" si="57"/>
+        <v>0.35</v>
+      </c>
+      <c r="Y107" s="8">
+        <f t="shared" si="58"/>
+        <v>0.35</v>
+      </c>
+      <c r="Z107" s="8">
+        <f t="shared" si="59"/>
+        <v>0.35</v>
+      </c>
+      <c r="AA107" s="8">
+        <f t="shared" si="60"/>
+        <v>0.35</v>
+      </c>
+      <c r="AB107" s="8">
+        <f t="shared" si="61"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC107" s="8">
+        <f t="shared" si="62"/>
+        <v>0.35</v>
+      </c>
+      <c r="AD107" s="8">
+        <f t="shared" si="63"/>
+        <v>0.35</v>
+      </c>
+      <c r="AE107" s="8">
+        <f t="shared" si="64"/>
+        <v>0.35</v>
+      </c>
+      <c r="AF107" s="8">
+        <f t="shared" si="65"/>
+        <v>0.35</v>
+      </c>
+      <c r="AG107" s="8">
+        <f t="shared" si="66"/>
+        <v>0.35</v>
+      </c>
+      <c r="AH107" s="8">
+        <f t="shared" si="67"/>
+        <v>0.35</v>
+      </c>
+      <c r="AI107" s="8">
+        <f t="shared" si="68"/>
+        <v>0.35</v>
+      </c>
+      <c r="AJ107" s="8">
+        <f t="shared" si="69"/>
+        <v>0.35</v>
+      </c>
+      <c r="AK107" s="8">
+        <f t="shared" si="70"/>
+        <v>0.35</v>
+      </c>
+      <c r="AL107" s="8">
+        <f t="shared" si="71"/>
+        <v>0.35</v>
+      </c>
+      <c r="AM107" s="8">
+        <f t="shared" si="72"/>
+        <v>0.35</v>
+      </c>
+      <c r="AN107" s="8">
+        <f t="shared" si="73"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="K108" s="8">
+        <f t="shared" si="44"/>
+        <v>0.35</v>
+      </c>
+      <c r="L108" s="8">
+        <f t="shared" si="45"/>
+        <v>0.35</v>
+      </c>
+      <c r="M108" s="8">
+        <f t="shared" si="46"/>
+        <v>0.35</v>
+      </c>
+      <c r="N108" s="8">
+        <f t="shared" si="47"/>
+        <v>0.35</v>
+      </c>
+      <c r="O108" s="8">
+        <f t="shared" si="48"/>
+        <v>0.35</v>
+      </c>
+      <c r="P108" s="8">
+        <f t="shared" si="49"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q108" s="8">
+        <f t="shared" si="50"/>
+        <v>0.35</v>
+      </c>
+      <c r="R108" s="8">
+        <f t="shared" si="51"/>
+        <v>0.35</v>
+      </c>
+      <c r="S108" s="8">
+        <f t="shared" si="52"/>
+        <v>0.35</v>
+      </c>
+      <c r="T108" s="8">
+        <f t="shared" si="53"/>
+        <v>0.35</v>
+      </c>
+      <c r="U108" s="8">
+        <f t="shared" si="54"/>
+        <v>0.35</v>
+      </c>
+      <c r="V108" s="8">
+        <f t="shared" si="55"/>
+        <v>0.35</v>
+      </c>
+      <c r="W108" s="8">
+        <f t="shared" si="56"/>
+        <v>0.35</v>
+      </c>
+      <c r="X108" s="8">
+        <f t="shared" si="57"/>
+        <v>0.35</v>
+      </c>
+      <c r="Y108" s="8">
+        <f t="shared" si="58"/>
+        <v>0.35</v>
+      </c>
+      <c r="Z108" s="8">
+        <f t="shared" si="59"/>
+        <v>0.35</v>
+      </c>
+      <c r="AA108" s="8">
+        <f t="shared" si="60"/>
+        <v>0.35</v>
+      </c>
+      <c r="AB108" s="8">
+        <f t="shared" si="61"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC108" s="8">
+        <f t="shared" si="62"/>
+        <v>0.35</v>
+      </c>
+      <c r="AD108" s="8">
+        <f t="shared" si="63"/>
+        <v>0.35</v>
+      </c>
+      <c r="AE108" s="8">
+        <f t="shared" si="64"/>
+        <v>0.35</v>
+      </c>
+      <c r="AF108" s="8">
+        <f t="shared" si="65"/>
+        <v>0.35</v>
+      </c>
+      <c r="AG108" s="8">
+        <f t="shared" si="66"/>
+        <v>0.35</v>
+      </c>
+      <c r="AH108" s="8">
+        <f t="shared" si="67"/>
+        <v>0.35</v>
+      </c>
+      <c r="AI108" s="8">
+        <f t="shared" si="68"/>
+        <v>0.35</v>
+      </c>
+      <c r="AJ108" s="8">
+        <f t="shared" si="69"/>
+        <v>0.35</v>
+      </c>
+      <c r="AK108" s="8">
+        <f t="shared" si="70"/>
+        <v>0.35</v>
+      </c>
+      <c r="AL108" s="8">
+        <f t="shared" si="71"/>
+        <v>0.35</v>
+      </c>
+      <c r="AM108" s="8">
+        <f t="shared" si="72"/>
+        <v>0.35</v>
+      </c>
+      <c r="AN108" s="8">
+        <f t="shared" si="73"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A109" s="26" t="str">
+        <f>A108</f>
+        <v>AMB_LG</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="K109" s="11">
+        <f t="shared" si="44"/>
+        <v>5.5</v>
+      </c>
+      <c r="L109" s="12">
+        <f t="shared" si="45"/>
+        <v>5.5</v>
+      </c>
+      <c r="M109" s="12">
+        <f t="shared" si="46"/>
+        <v>5.5</v>
+      </c>
+      <c r="N109" s="12">
+        <f t="shared" si="47"/>
+        <v>5.5</v>
+      </c>
+      <c r="O109" s="12">
+        <f t="shared" si="48"/>
+        <v>5.5</v>
+      </c>
+      <c r="P109" s="12">
+        <f t="shared" si="49"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q109" s="12">
+        <f t="shared" si="50"/>
+        <v>5.5</v>
+      </c>
+      <c r="R109" s="12">
+        <f t="shared" si="51"/>
+        <v>5.5</v>
+      </c>
+      <c r="S109" s="12">
+        <f t="shared" si="52"/>
+        <v>5.5</v>
+      </c>
+      <c r="T109" s="12">
+        <f t="shared" si="53"/>
+        <v>5.5</v>
+      </c>
+      <c r="U109" s="12">
+        <f t="shared" si="54"/>
+        <v>5.5</v>
+      </c>
+      <c r="V109" s="12">
+        <f t="shared" si="55"/>
+        <v>5.5</v>
+      </c>
+      <c r="W109" s="12">
+        <f t="shared" si="56"/>
+        <v>5.5</v>
+      </c>
+      <c r="X109" s="12">
+        <f t="shared" si="57"/>
+        <v>5.5</v>
+      </c>
+      <c r="Y109" s="12">
+        <f t="shared" si="58"/>
+        <v>5.5</v>
+      </c>
+      <c r="Z109" s="12">
+        <f t="shared" si="59"/>
+        <v>5.5</v>
+      </c>
+      <c r="AA109" s="12">
+        <f t="shared" si="60"/>
+        <v>5.5</v>
+      </c>
+      <c r="AB109" s="12">
+        <f t="shared" si="61"/>
+        <v>5.5</v>
+      </c>
+      <c r="AC109" s="12">
+        <f t="shared" si="62"/>
+        <v>5.5</v>
+      </c>
+      <c r="AD109" s="12">
+        <f t="shared" si="63"/>
+        <v>5.5</v>
+      </c>
+      <c r="AE109" s="12">
+        <f t="shared" si="64"/>
+        <v>5.5</v>
+      </c>
+      <c r="AF109" s="12">
+        <f t="shared" si="65"/>
+        <v>5.5</v>
+      </c>
+      <c r="AG109" s="12">
+        <f t="shared" si="66"/>
+        <v>5.5</v>
+      </c>
+      <c r="AH109" s="12">
+        <f t="shared" si="67"/>
+        <v>5.5</v>
+      </c>
+      <c r="AI109" s="12">
+        <f t="shared" si="68"/>
+        <v>5.5</v>
+      </c>
+      <c r="AJ109" s="12">
+        <f t="shared" si="69"/>
+        <v>5.5</v>
+      </c>
+      <c r="AK109" s="12">
+        <f t="shared" si="70"/>
+        <v>5.5</v>
+      </c>
+      <c r="AL109" s="12">
+        <f t="shared" si="71"/>
+        <v>5.5</v>
+      </c>
+      <c r="AM109" s="12">
+        <f t="shared" si="72"/>
+        <v>5.5</v>
+      </c>
+      <c r="AN109" s="12">
+        <f t="shared" si="73"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="str">
+        <f>A109</f>
+        <v>AMB_LG</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="K110" s="11">
+        <f t="shared" si="44"/>
+        <v>2.8</v>
+      </c>
+      <c r="L110" s="12">
+        <f t="shared" si="45"/>
+        <v>2.8</v>
+      </c>
+      <c r="M110" s="12">
+        <f t="shared" si="46"/>
+        <v>2.8</v>
+      </c>
+      <c r="N110" s="12">
+        <f t="shared" si="47"/>
+        <v>2.8</v>
+      </c>
+      <c r="O110" s="12">
+        <f t="shared" si="48"/>
+        <v>2.8</v>
+      </c>
+      <c r="P110" s="12">
+        <f t="shared" si="49"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q110" s="12">
+        <f t="shared" si="50"/>
+        <v>2.8</v>
+      </c>
+      <c r="R110" s="12">
+        <f t="shared" si="51"/>
+        <v>2.8</v>
+      </c>
+      <c r="S110" s="12">
+        <f t="shared" si="52"/>
+        <v>2.8</v>
+      </c>
+      <c r="T110" s="12">
+        <f t="shared" si="53"/>
+        <v>2.8</v>
+      </c>
+      <c r="U110" s="12">
+        <f t="shared" si="54"/>
+        <v>2.8</v>
+      </c>
+      <c r="V110" s="12">
+        <f t="shared" si="55"/>
+        <v>2.8</v>
+      </c>
+      <c r="W110" s="12">
+        <f t="shared" si="56"/>
+        <v>2.8</v>
+      </c>
+      <c r="X110" s="12">
+        <f t="shared" si="57"/>
+        <v>2.8</v>
+      </c>
+      <c r="Y110" s="12">
+        <f t="shared" si="58"/>
+        <v>2.8</v>
+      </c>
+      <c r="Z110" s="12">
+        <f t="shared" si="59"/>
+        <v>2.8</v>
+      </c>
+      <c r="AA110" s="12">
+        <f t="shared" si="60"/>
+        <v>2.8</v>
+      </c>
+      <c r="AB110" s="12">
+        <f t="shared" si="61"/>
+        <v>2.8</v>
+      </c>
+      <c r="AC110" s="12">
+        <f t="shared" si="62"/>
+        <v>2.8</v>
+      </c>
+      <c r="AD110" s="12">
+        <f t="shared" si="63"/>
+        <v>2.8</v>
+      </c>
+      <c r="AE110" s="12">
+        <f t="shared" si="64"/>
+        <v>2.8</v>
+      </c>
+      <c r="AF110" s="12">
+        <f t="shared" si="65"/>
+        <v>2.8</v>
+      </c>
+      <c r="AG110" s="12">
+        <f t="shared" si="66"/>
+        <v>2.8</v>
+      </c>
+      <c r="AH110" s="12">
+        <f t="shared" si="67"/>
+        <v>2.8</v>
+      </c>
+      <c r="AI110" s="12">
+        <f t="shared" si="68"/>
+        <v>2.8</v>
+      </c>
+      <c r="AJ110" s="12">
+        <f t="shared" si="69"/>
+        <v>2.8</v>
+      </c>
+      <c r="AK110" s="12">
+        <f t="shared" si="70"/>
+        <v>2.8</v>
+      </c>
+      <c r="AL110" s="12">
+        <f t="shared" si="71"/>
+        <v>2.8</v>
+      </c>
+      <c r="AM110" s="12">
+        <f t="shared" si="72"/>
+        <v>2.8</v>
+      </c>
+      <c r="AN110" s="12">
+        <f t="shared" si="73"/>
+        <v>2.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A104">
+  <conditionalFormatting sqref="A2:A110">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ignore">
       <formula>NOT(ISERROR(SEARCH("ignore",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA41A07-7984-4190-8EB6-7F9960D4084A}">
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="1">
+        <f t="shared" ref="F1:AH1" si="0">E1+1</f>
+        <v>2022</v>
+      </c>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="U1" s="1">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="V1" s="1">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="W1" s="1">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="X1" s="1">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="1">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="1">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="1">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="1">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="1">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="1">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AE1" s="1">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="1">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="AG1" s="1">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="1">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>650</v>
+      </c>
+      <c r="E2">
+        <v>650</v>
+      </c>
+      <c r="F2">
+        <v>650</v>
+      </c>
+      <c r="G2">
+        <v>650</v>
+      </c>
+      <c r="H2">
+        <v>650</v>
+      </c>
+      <c r="I2">
+        <v>650</v>
+      </c>
+      <c r="J2">
+        <v>650</v>
+      </c>
+      <c r="K2">
+        <v>650</v>
+      </c>
+      <c r="L2">
+        <v>650</v>
+      </c>
+      <c r="M2">
+        <v>650</v>
+      </c>
+      <c r="N2">
+        <v>650</v>
+      </c>
+      <c r="O2">
+        <v>650</v>
+      </c>
+      <c r="P2">
+        <v>650</v>
+      </c>
+      <c r="Q2">
+        <v>650</v>
+      </c>
+      <c r="R2">
+        <v>650</v>
+      </c>
+      <c r="S2">
+        <v>650</v>
+      </c>
+      <c r="T2">
+        <v>650</v>
+      </c>
+      <c r="U2">
+        <v>650</v>
+      </c>
+      <c r="V2">
+        <v>650</v>
+      </c>
+      <c r="W2">
+        <v>650</v>
+      </c>
+      <c r="X2">
+        <v>650</v>
+      </c>
+      <c r="Y2">
+        <v>650</v>
+      </c>
+      <c r="Z2">
+        <v>650</v>
+      </c>
+      <c r="AA2">
+        <v>650</v>
+      </c>
+      <c r="AB2">
+        <v>650</v>
+      </c>
+      <c r="AC2">
+        <v>650</v>
+      </c>
+      <c r="AD2">
+        <v>650</v>
+      </c>
+      <c r="AE2">
+        <v>650</v>
+      </c>
+      <c r="AF2">
+        <v>650</v>
+      </c>
+      <c r="AG2">
+        <v>650</v>
+      </c>
+      <c r="AH2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2200</v>
+      </c>
+      <c r="E3">
+        <v>2200</v>
+      </c>
+      <c r="F3">
+        <v>2200</v>
+      </c>
+      <c r="G3">
+        <v>2200</v>
+      </c>
+      <c r="H3">
+        <v>2200</v>
+      </c>
+      <c r="I3">
+        <v>2200</v>
+      </c>
+      <c r="J3">
+        <v>2200</v>
+      </c>
+      <c r="K3">
+        <v>2200</v>
+      </c>
+      <c r="L3">
+        <v>2200</v>
+      </c>
+      <c r="M3">
+        <v>2200</v>
+      </c>
+      <c r="N3">
+        <v>2200</v>
+      </c>
+      <c r="O3">
+        <v>2200</v>
+      </c>
+      <c r="P3">
+        <v>2200</v>
+      </c>
+      <c r="Q3">
+        <v>2200</v>
+      </c>
+      <c r="R3">
+        <v>2200</v>
+      </c>
+      <c r="S3">
+        <v>2200</v>
+      </c>
+      <c r="T3">
+        <v>2200</v>
+      </c>
+      <c r="U3">
+        <v>2200</v>
+      </c>
+      <c r="V3">
+        <v>2200</v>
+      </c>
+      <c r="W3">
+        <v>2200</v>
+      </c>
+      <c r="X3">
+        <v>2200</v>
+      </c>
+      <c r="Y3">
+        <v>2200</v>
+      </c>
+      <c r="Z3">
+        <v>2200</v>
+      </c>
+      <c r="AA3">
+        <v>2200</v>
+      </c>
+      <c r="AB3">
+        <v>2200</v>
+      </c>
+      <c r="AC3">
+        <v>2200</v>
+      </c>
+      <c r="AD3">
+        <v>2200</v>
+      </c>
+      <c r="AE3">
+        <v>2200</v>
+      </c>
+      <c r="AF3">
+        <v>2200</v>
+      </c>
+      <c r="AG3">
+        <v>2200</v>
+      </c>
+      <c r="AH3">
+        <v>2200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>